--- a/EMSC2404-Summary.xlsx
+++ b/EMSC2404-Summary.xlsx
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -569,13 +569,13 @@
         <v>Lutz</v>
       </c>
       <c r="O2" s="1">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="P2" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="R2" s="1">
         <v>14</v>
@@ -587,13 +587,13 @@
         <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="V2" s="1">
         <v>16</v>
       </c>
       <c r="W2" s="1">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="X2" s="1">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -649,13 +649,13 @@
         <v>Phil</v>
       </c>
       <c r="O3" s="1">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="P3" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R3" s="1">
         <v>8</v>
@@ -667,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="V3" s="1">
         <v>14</v>
       </c>
       <c r="W3" s="1">
-        <v>-11</v>
+        <v>20</v>
       </c>
       <c r="X3" s="1">
         <v>-1</v>
@@ -693,70 +693,70 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>Finland</v>
+        <v>Portugal</v>
       </c>
       <c r="D4" s="1" t="str">
-        <v>ABREU</v>
+        <v>Sofia Camara</v>
       </c>
       <c r="E4" s="1" t="str">
-        <v>Caliente</v>
+        <v>Who Do I Call Now?</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="I4" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K4" s="1">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1">
+        <v>66</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <v>Paolo Bortoli</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <v>Paolo Bortoli</v>
+      </c>
+      <c r="O4" s="1">
+        <v>87</v>
+      </c>
+      <c r="P4" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="1">
         <v>56</v>
       </c>
-      <c r="M4" s="1" t="str">
-        <v>Francesco Perrone</v>
-      </c>
-      <c r="N4" s="1" t="str">
-        <v>Francesco</v>
-      </c>
-      <c r="O4" s="1">
-        <v>74</v>
-      </c>
-      <c r="P4" s="1">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>53</v>
-      </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V4" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W4" s="1">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="X4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="1" t="b">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>Bulgaria</v>
+        <v>Finland</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>VIKTORIO</v>
+        <v>ABREU</v>
       </c>
       <c r="E5" s="1" t="str">
-        <v>Tough To Love</v>
+        <v>Caliente</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -788,55 +788,55 @@
         <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="I5" s="1">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>68</v>
+      </c>
+      <c r="K5" s="1">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1">
+        <v>56</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <v>Francesco Perrone</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <v>Francesco</v>
+      </c>
+      <c r="O5" s="1">
+        <v>82</v>
+      </c>
+      <c r="P5" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>51</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>5</v>
+      </c>
+      <c r="T5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>18</v>
+      </c>
+      <c r="V5" s="1">
+        <v>11</v>
+      </c>
+      <c r="W5" s="1">
+        <v>45</v>
+      </c>
+      <c r="X5" s="1">
         <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>85</v>
-      </c>
-      <c r="K5" s="1">
-        <v>42</v>
-      </c>
-      <c r="L5" s="1">
-        <v>62</v>
-      </c>
-      <c r="M5" s="1" t="str">
-        <v>Pavel Todorov</v>
-      </c>
-      <c r="N5" s="1" t="str">
-        <v>Pavel Todorov</v>
-      </c>
-      <c r="O5" s="1">
-        <v>81</v>
-      </c>
-      <c r="P5" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>75</v>
-      </c>
-      <c r="R5" s="1">
-        <v>8</v>
-      </c>
-      <c r="S5" s="1">
-        <v>6</v>
-      </c>
-      <c r="T5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>15</v>
-      </c>
-      <c r="V5" s="1">
-        <v>14</v>
-      </c>
-      <c r="W5" s="1">
-        <v>2</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
       </c>
       <c r="Y5" s="1" t="b">
         <v>0</v>
@@ -853,67 +853,67 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>Portugal</v>
+        <v>Azerbaijan</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>Sofia Camara</v>
+        <v>SEVDALIZA FT. PABLLO VITTAR &amp; YSEULT</v>
       </c>
       <c r="E6" s="1" t="str">
-        <v>Who Do I Call Now?</v>
+        <v>ALIBI</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
       </c>
       <c r="H6" s="1">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
       <c r="J6" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K6" s="1">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" s="1" t="str">
-        <v>Paolo Bortoli</v>
+        <v>Nijat Badalov</v>
       </c>
       <c r="N6" s="1" t="str">
-        <v>Paolo Bortoli</v>
+        <v>Nijat</v>
       </c>
       <c r="O6" s="1">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P6" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>82</v>
+      </c>
+      <c r="R6" s="1">
+        <v>16</v>
+      </c>
+      <c r="S6" s="1">
         <v>11</v>
       </c>
-      <c r="Q6" s="1">
-        <v>65</v>
-      </c>
-      <c r="R6" s="1">
-        <v>10</v>
-      </c>
-      <c r="S6" s="1">
-        <v>10</v>
-      </c>
       <c r="T6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="V6" s="1">
         <v>12</v>
       </c>
       <c r="W6" s="1">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
@@ -933,13 +933,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C7" s="1" t="str">
-        <v>Azerbaijan</v>
+        <v>San Marino</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>SEVDALIZA FT. PABLLO VITTAR &amp; YSEULT</v>
+        <v>Madame</v>
       </c>
       <c r="E7" s="1" t="str">
-        <v>ALIBI</v>
+        <v>IL BENE NEL MALE</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -948,40 +948,40 @@
         <v>6</v>
       </c>
       <c r="H7" s="1">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="I7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L7" s="1">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M7" s="1" t="str">
-        <v>Nijat Badalov</v>
+        <v>Hendrik Wolff</v>
       </c>
       <c r="N7" s="1" t="str">
-        <v>Nijat</v>
+        <v>Hendrik</v>
       </c>
       <c r="O7" s="1">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="P7" s="1">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>21</v>
+      </c>
+      <c r="R7" s="1">
         <v>9</v>
       </c>
-      <c r="Q7" s="1">
-        <v>65</v>
-      </c>
-      <c r="R7" s="1">
-        <v>16</v>
-      </c>
       <c r="S7" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T7" s="1" t="b">
         <v>1</v>
@@ -990,13 +990,13 @@
         <v>14</v>
       </c>
       <c r="V7" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W7" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="X7" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1" t="b">
         <v>0</v>
@@ -1013,67 +1013,67 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C8" s="1" t="str">
-        <v>Monaco</v>
+        <v>Bulgaria</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>Lukas Abdul</v>
+        <v>VIKTORIO</v>
       </c>
       <c r="E8" s="1" t="str">
-        <v>Les Maux Bleus</v>
+        <v>Tough To Love</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
       </c>
       <c r="H8" s="1">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I8" s="1">
         <v>4</v>
       </c>
       <c r="J8" s="1">
+        <v>85</v>
+      </c>
+      <c r="K8" s="1">
+        <v>42</v>
+      </c>
+      <c r="L8" s="1">
+        <v>62</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <v>Pavel Todorov</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <v>Pavel Todorov</v>
+      </c>
+      <c r="O8" s="1">
+        <v>85</v>
+      </c>
+      <c r="P8" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1">
         <v>78</v>
       </c>
-      <c r="K8" s="1">
-        <v>58</v>
-      </c>
-      <c r="L8" s="1">
-        <v>70</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <v>Joaquin Montesinos</v>
-      </c>
-      <c r="N8" s="1" t="str">
-        <v>Joaquin Montesinos</v>
-      </c>
-      <c r="O8" s="1">
-        <v>52</v>
-      </c>
-      <c r="P8" s="1">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>28</v>
-      </c>
       <c r="R8" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S8" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="T8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="V8" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="W8" s="1">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="X8" s="1">
         <v>-3</v>
@@ -1093,13 +1093,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C9" s="1" t="str">
-        <v>Cyprus</v>
+        <v>Netherlands</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>Nikos Oikonomopoulos</v>
+        <v>Hannah Mae &amp; Maksim</v>
       </c>
       <c r="E9" s="1" t="str">
-        <v>Valto Terma</v>
+        <v>Ik Wil Dat Je Liegt</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1108,55 +1108,55 @@
         <v>8</v>
       </c>
       <c r="H9" s="1">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I9" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="K9" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M9" s="1" t="str">
-        <v>Maurice Dupont</v>
+        <v>Giovanni Affronte</v>
       </c>
       <c r="N9" s="1" t="str">
-        <v>Maurice</v>
+        <v>Giovanni</v>
       </c>
       <c r="O9" s="1">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="P9" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="1">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="R9" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="T9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U9" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V9" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W9" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="X9" s="1">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="Y9" s="1" t="b">
         <v>0</v>
@@ -1173,13 +1173,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C10" s="1" t="str">
-        <v>Netherlands</v>
+        <v>Cyprus</v>
       </c>
       <c r="D10" s="1" t="str">
-        <v>Hannah Mae &amp; Maksim</v>
+        <v>Nikos Oikonomopoulos</v>
       </c>
       <c r="E10" s="1" t="str">
-        <v>Ik Wil Dat Je Liegt</v>
+        <v>Valto Terma</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1188,55 +1188,55 @@
         <v>9</v>
       </c>
       <c r="H10" s="1">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I10" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="K10" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" s="1">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M10" s="1" t="str">
-        <v>Giovanni Affronte</v>
+        <v>Maurice Dupont</v>
       </c>
       <c r="N10" s="1" t="str">
-        <v>Giovanni</v>
+        <v>Maurice</v>
       </c>
       <c r="O10" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="1">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="R10" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S10" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U10" s="1">
+        <v>13</v>
+      </c>
+      <c r="V10" s="1">
         <v>9</v>
       </c>
-      <c r="V10" s="1">
-        <v>15</v>
-      </c>
       <c r="W10" s="1">
-        <v>-13</v>
+        <v>27</v>
       </c>
       <c r="X10" s="1">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1" t="b">
         <v>0</v>
@@ -1253,55 +1253,55 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C11" s="1" t="str">
-        <v>United Kingdom</v>
+        <v>Monaco</v>
       </c>
       <c r="D11" s="1" t="str">
-        <v>Tom Walker</v>
+        <v>Lukas Abdul</v>
       </c>
       <c r="E11" s="1" t="str">
-        <v>Head Underwater</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <v>F</v>
+        <v>Les Maux Bleus</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
       </c>
       <c r="H11" s="1">
-        <v>67</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <v/>
-      </c>
-      <c r="J11" s="1" t="str">
-        <v/>
-      </c>
-      <c r="K11" s="1" t="str">
-        <v/>
-      </c>
-      <c r="L11" s="1" t="str">
-        <v/>
+        <v>76</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>78</v>
+      </c>
+      <c r="K11" s="1">
+        <v>58</v>
+      </c>
+      <c r="L11" s="1">
+        <v>70</v>
       </c>
       <c r="M11" s="1" t="str">
-        <v>Mauro Correia</v>
+        <v>Joaquin Montesinos</v>
       </c>
       <c r="N11" s="1" t="str">
-        <v>Mauro Correia</v>
+        <v>Joaquin Montesinos</v>
       </c>
       <c r="O11" s="1">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="P11" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="1">
         <v>28</v>
       </c>
-      <c r="Q11" s="1">
-        <v>11</v>
-      </c>
-      <c r="R11" s="1" t="str">
-        <v/>
+      <c r="R11" s="1">
+        <v>13</v>
       </c>
       <c r="S11" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T11" s="1" t="b">
         <v>1</v>
@@ -1309,14 +1309,14 @@
       <c r="U11" s="1">
         <v>12</v>
       </c>
-      <c r="V11" s="1" t="str">
-        <v/>
-      </c>
-      <c r="W11" s="1" t="str">
-        <v/>
-      </c>
-      <c r="X11" s="1" t="str">
-        <v/>
+      <c r="V11" s="1">
+        <v>10</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-6</v>
       </c>
       <c r="Y11" s="1" t="b">
         <v>0</v>
@@ -1333,70 +1333,70 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C12" s="1" t="str">
-        <v>Sweden</v>
+        <v>United Kingdom</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>Husavik</v>
+        <v>Tom Walker</v>
       </c>
       <c r="E12" s="1" t="str">
-        <v>My Home Town</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
+        <v>Head Underwater</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <v>F</v>
       </c>
       <c r="G12" s="1">
         <v>11</v>
       </c>
       <c r="H12" s="1">
-        <v>65</v>
-      </c>
-      <c r="I12" s="1">
-        <v>9</v>
-      </c>
-      <c r="J12" s="1">
-        <v>59</v>
-      </c>
-      <c r="K12" s="1">
-        <v>40</v>
-      </c>
-      <c r="L12" s="1">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <v/>
+      </c>
+      <c r="J12" s="1" t="str">
+        <v/>
+      </c>
+      <c r="K12" s="1" t="str">
+        <v/>
+      </c>
+      <c r="L12" s="1" t="str">
+        <v/>
       </c>
       <c r="M12" s="1" t="str">
-        <v>Rui Reis</v>
+        <v>Mauro Correia</v>
       </c>
       <c r="N12" s="1" t="str">
-        <v>Rui Reis</v>
+        <v>Mauro Correia</v>
       </c>
       <c r="O12" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P12" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="1">
-        <v>11</v>
-      </c>
-      <c r="R12" s="1">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <v/>
       </c>
       <c r="S12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="T12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U12" s="1">
-        <v>9</v>
-      </c>
-      <c r="V12" s="1">
-        <v>11</v>
-      </c>
-      <c r="W12" s="1">
-        <v>6</v>
-      </c>
-      <c r="X12" s="1">
-        <v>-2</v>
+        <v>15</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <v/>
+      </c>
+      <c r="W12" s="1" t="str">
+        <v/>
+      </c>
+      <c r="X12" s="1" t="str">
+        <v/>
       </c>
       <c r="Y12" s="1" t="b">
         <v>0</v>
@@ -1413,70 +1413,70 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C13" s="1" t="str">
-        <v>San Marino</v>
+        <v>Sweden</v>
       </c>
       <c r="D13" s="1" t="str">
-        <v>Madame</v>
+        <v>Husavik</v>
       </c>
       <c r="E13" s="1" t="str">
-        <v>IL BENE NEL MALE</v>
+        <v>My Home Town</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>12</v>
       </c>
       <c r="H13" s="1">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L13" s="1">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M13" s="1" t="str">
-        <v>Hendrik Wolff</v>
+        <v>Rui Reis</v>
       </c>
       <c r="N13" s="1" t="str">
-        <v>Hendrik</v>
+        <v>Rui Reis</v>
       </c>
       <c r="O13" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="P13" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="1">
+        <v>21</v>
+      </c>
+      <c r="R13" s="1">
+        <v>12</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2</v>
+      </c>
+      <c r="T13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1">
+        <v>11</v>
+      </c>
+      <c r="W13" s="1">
         <v>16</v>
       </c>
-      <c r="R13" s="1">
-        <v>9</v>
-      </c>
-      <c r="S13" s="1">
-        <v>9</v>
-      </c>
-      <c r="T13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" s="1">
-        <v>9</v>
-      </c>
-      <c r="V13" s="1">
-        <v>14</v>
-      </c>
-      <c r="W13" s="1">
-        <v>-14</v>
-      </c>
       <c r="X13" s="1">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="Y13" s="1" t="b">
         <v>0</v>
@@ -1493,70 +1493,70 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C14" s="1" t="str">
-        <v>France</v>
+        <v>Germany</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v>Niam</v>
+        <v>Gregor Hägele</v>
       </c>
       <c r="E14" s="1" t="str">
-        <v>guignols</v>
+        <v>1 Jahr</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
         <v>13</v>
       </c>
       <c r="H14" s="1">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I14" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K14" s="1">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="L14" s="1">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M14" s="1" t="str">
-        <v>Mathias Christiansson</v>
+        <v>Stefano Di Betta</v>
       </c>
       <c r="N14" s="1" t="str">
-        <v>Mathias</v>
+        <v>Stefan</v>
       </c>
       <c r="O14" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P14" s="1">
         <v>26</v>
       </c>
       <c r="Q14" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="R14" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S14" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="T14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U14" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V14" s="1">
         <v>12</v>
       </c>
       <c r="W14" s="1">
-        <v>-19</v>
+        <v>10</v>
       </c>
       <c r="X14" s="1">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="Y14" s="1" t="b">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C15" s="1" t="str">
-        <v>Croatia</v>
+        <v>Czechia</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>Nina Badric</v>
+        <v>MIKOLAS</v>
       </c>
       <c r="E15" s="1" t="str">
-        <v>Kako si</v>
+        <v>DELILAH</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1588,55 +1588,55 @@
         <v>14</v>
       </c>
       <c r="H15" s="1">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I15" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1">
+        <v>44</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <v>Tomislav Roso</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="O15" s="1">
+        <v>52</v>
+      </c>
+      <c r="P15" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="1">
         <v>36</v>
       </c>
-      <c r="L15" s="1">
-        <v>49</v>
-      </c>
-      <c r="M15" s="1" t="str">
-        <v>Rodrigo Erazo</v>
-      </c>
-      <c r="N15" s="1" t="str">
-        <v>Rodrigo Erazo</v>
-      </c>
-      <c r="O15" s="1">
-        <v>46</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>21</v>
+      </c>
+      <c r="T15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>14</v>
+      </c>
+      <c r="V15" s="1">
         <v>12</v>
       </c>
-      <c r="Q15" s="1">
-        <v>34</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="W15" s="1">
         <v>4</v>
       </c>
-      <c r="S15" s="1">
-        <v>3</v>
-      </c>
-      <c r="T15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U15" s="1">
-        <v>7</v>
-      </c>
-      <c r="V15" s="1">
-        <v>11</v>
-      </c>
-      <c r="W15" s="1">
-        <v>-10</v>
-      </c>
       <c r="X15" s="1">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="Y15" s="1" t="b">
         <v>0</v>
@@ -1653,70 +1653,70 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C16" s="1" t="str">
-        <v>Albania</v>
+        <v>Ireland</v>
       </c>
       <c r="D16" s="1" t="str">
-        <v>Elhaida Dani</v>
+        <v>Aimée</v>
       </c>
       <c r="E16" s="1" t="str">
-        <v>Zemrës</v>
+        <v>Daisy Chains</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
         <v>15</v>
       </c>
       <c r="H16" s="1">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I16" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K16" s="1">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="L16" s="1">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="M16" s="1" t="str">
-        <v>Martin Carlsholt Unger</v>
+        <v>Keiron Lynch</v>
       </c>
       <c r="N16" s="1" t="str">
-        <v>Martin Carlshollt Unger</v>
+        <v>Keiron</v>
       </c>
       <c r="O16" s="1">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="P16" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>37</v>
+      </c>
+      <c r="R16" s="1">
+        <v>6</v>
+      </c>
+      <c r="S16" s="1">
+        <v>13</v>
+      </c>
+      <c r="T16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
         <v>17</v>
       </c>
-      <c r="Q16" s="1">
-        <v>22</v>
-      </c>
-      <c r="R16" s="1">
-        <v>16</v>
-      </c>
-      <c r="S16" s="1">
-        <v>23</v>
-      </c>
-      <c r="T16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
-        <v>10</v>
-      </c>
       <c r="V16" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W16" s="1">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="X16" s="1">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="Y16" s="1" t="b">
         <v>0</v>
@@ -1733,70 +1733,70 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C17" s="1" t="str">
-        <v>Switzerland</v>
+        <v>France</v>
       </c>
       <c r="D17" s="1" t="str">
-        <v>Luca Hänni</v>
+        <v>Niam</v>
       </c>
       <c r="E17" s="1" t="str">
-        <v>Stay With Me</v>
+        <v>guignols</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>16</v>
       </c>
       <c r="H17" s="1">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>78</v>
+      </c>
+      <c r="K17" s="1">
+        <v>52</v>
+      </c>
+      <c r="L17" s="1">
+        <v>58</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <v>Mathias Christiansson</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <v>Mathias</v>
+      </c>
+      <c r="O17" s="1">
+        <v>41</v>
+      </c>
+      <c r="P17" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>15</v>
+      </c>
+      <c r="R17" s="1">
+        <v>6</v>
+      </c>
+      <c r="S17" s="1">
+        <v>16</v>
+      </c>
+      <c r="T17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>10</v>
+      </c>
+      <c r="V17" s="1">
         <v>12</v>
       </c>
-      <c r="J17" s="1">
-        <v>38</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>20</v>
-      </c>
-      <c r="M17" s="1" t="str">
-        <v>Sven van der Lelie</v>
-      </c>
-      <c r="N17" s="1" t="str">
-        <v>Sven</v>
-      </c>
-      <c r="O17" s="1">
-        <v>40</v>
-      </c>
-      <c r="P17" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>26</v>
-      </c>
-      <c r="R17" s="1">
-        <v>11</v>
-      </c>
-      <c r="S17" s="1">
-        <v>4</v>
-      </c>
-      <c r="T17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>11</v>
-      </c>
-      <c r="V17" s="1">
-        <v>8</v>
-      </c>
       <c r="W17" s="1">
-        <v>16</v>
+        <v>-11</v>
       </c>
       <c r="X17" s="1">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="Y17" s="1" t="b">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C18" s="1" t="str">
-        <v>Ireland</v>
+        <v>Spain</v>
       </c>
       <c r="D18" s="1" t="str">
-        <v>Aimée</v>
+        <v>Javy Ramírez</v>
       </c>
       <c r="E18" s="1" t="str">
-        <v>Daisy Chains</v>
+        <v>Tu Nombre</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
@@ -1828,40 +1828,40 @@
         <v>17</v>
       </c>
       <c r="H18" s="1">
+        <v>66</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>90</v>
+      </c>
+      <c r="K18" s="1">
         <v>52</v>
       </c>
-      <c r="I18" s="1">
-        <v>2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>92</v>
-      </c>
-      <c r="K18" s="1">
-        <v>54</v>
-      </c>
       <c r="L18" s="1">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M18" s="1" t="str">
-        <v>Keiron Lynch</v>
+        <v>??? Luis Coelho</v>
       </c>
       <c r="N18" s="1" t="str">
-        <v>Keiron</v>
+        <v>Luis Coelho</v>
       </c>
       <c r="O18" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="R18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S18" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T18" s="1" t="b">
         <v>1</v>
@@ -1873,10 +1873,10 @@
         <v>13</v>
       </c>
       <c r="W18" s="1">
-        <v>-40</v>
+        <v>-24</v>
       </c>
       <c r="X18" s="1">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="Y18" s="1" t="b">
         <v>0</v>
@@ -1893,70 +1893,70 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C19" s="1" t="str">
-        <v>Spain</v>
+        <v>Croatia</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v>Javy Ramírez</v>
+        <v>Nina Badric</v>
       </c>
       <c r="E19" s="1" t="str">
-        <v>Tu Nombre</v>
+        <v>Kako si</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>18</v>
       </c>
       <c r="H19" s="1">
+        <v>66</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1">
+        <v>68</v>
+      </c>
+      <c r="K19" s="1">
+        <v>36</v>
+      </c>
+      <c r="L19" s="1">
         <v>49</v>
       </c>
-      <c r="I19" s="1">
+      <c r="M19" s="1" t="str">
+        <v>Rodrigo Erazo</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <v>Rodrigo Erazo</v>
+      </c>
+      <c r="O19" s="1">
+        <v>49</v>
+      </c>
+      <c r="P19" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>32</v>
+      </c>
+      <c r="R19" s="1">
+        <v>4</v>
+      </c>
+      <c r="S19" s="1">
         <v>3</v>
       </c>
-      <c r="J19" s="1">
-        <v>90</v>
-      </c>
-      <c r="K19" s="1">
-        <v>52</v>
-      </c>
-      <c r="L19" s="1">
-        <v>71</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <v>??? Luis Coelho</v>
-      </c>
-      <c r="N19" s="1" t="str">
-        <v>Luis Coelho</v>
-      </c>
-      <c r="O19" s="1">
-        <v>30</v>
-      </c>
-      <c r="P19" s="1">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="T19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>9</v>
+      </c>
+      <c r="V19" s="1">
         <v>11</v>
       </c>
-      <c r="R19" s="1">
-        <v>5</v>
-      </c>
-      <c r="S19" s="1">
-        <v>14</v>
-      </c>
-      <c r="T19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1">
-        <v>10</v>
-      </c>
-      <c r="V19" s="1">
-        <v>13</v>
-      </c>
       <c r="W19" s="1">
-        <v>-41</v>
+        <v>-2</v>
       </c>
       <c r="X19" s="1">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="Y19" s="1" t="b">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C20" s="1" t="str">
-        <v>Ukraine</v>
+        <v>Albania</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>Maro</v>
+        <v>Elhaida Dani</v>
       </c>
       <c r="E20" s="1" t="str">
-        <v>HELLSTORM</v>
+        <v>Zemrës</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1988,55 +1988,55 @@
         <v>19</v>
       </c>
       <c r="H20" s="1">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I20" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K20" s="1">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1">
+        <v>58</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <v>Martin Carlsholt Unger</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <v>Martin Carlshollt Unger</v>
+      </c>
+      <c r="O20" s="1">
+        <v>41</v>
+      </c>
+      <c r="P20" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>18</v>
+      </c>
+      <c r="R20" s="1">
+        <v>16</v>
+      </c>
+      <c r="S20" s="1">
+        <v>23</v>
+      </c>
+      <c r="T20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>12</v>
+      </c>
+      <c r="V20" s="1">
         <v>10</v>
       </c>
-      <c r="L20" s="1">
-        <v>29</v>
-      </c>
-      <c r="M20" s="1" t="str">
-        <v>Buraga Alexandru</v>
-      </c>
-      <c r="N20" s="1" t="str">
-        <v>Buraga Alexandru</v>
-      </c>
-      <c r="O20" s="1">
-        <v>47</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>47</v>
-      </c>
-      <c r="R20" s="1">
-        <v>15</v>
-      </c>
-      <c r="S20" s="1">
-        <v>8</v>
-      </c>
-      <c r="T20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1">
-        <v>11</v>
-      </c>
-      <c r="V20" s="1">
-        <v>11</v>
-      </c>
       <c r="W20" s="1">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="Y20" s="1" t="b">
         <v>0</v>
@@ -2053,67 +2053,67 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C21" s="1" t="str">
-        <v>Austria</v>
+        <v>Switzerland</v>
       </c>
       <c r="D21" s="1" t="str">
-        <v>Melissa Naschenweng</v>
+        <v>Luca Hänni</v>
       </c>
       <c r="E21" s="1" t="str">
-        <v>Legenden</v>
+        <v>Stay With Me</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
         <v>20</v>
       </c>
       <c r="H21" s="1">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I21" s="1">
         <v>12</v>
       </c>
       <c r="J21" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K21" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M21" s="1" t="str">
-        <v>Paul Didden</v>
+        <v>Sven van der Lelie</v>
       </c>
       <c r="N21" s="1" t="str">
-        <v>Paul Didden</v>
+        <v>Sven</v>
       </c>
       <c r="O21" s="1">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P21" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="1">
+        <v>20</v>
+      </c>
+      <c r="R21" s="1">
         <v>11</v>
       </c>
-      <c r="R21" s="1">
-        <v>14</v>
-      </c>
       <c r="S21" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U21" s="1">
+        <v>13</v>
+      </c>
+      <c r="V21" s="1">
         <v>8</v>
       </c>
-      <c r="V21" s="1">
-        <v>6</v>
-      </c>
       <c r="W21" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X21" s="1">
         <v>-8</v>
@@ -2133,13 +2133,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C22" s="1" t="str">
-        <v>Czechia</v>
+        <v>Ukraine</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>MIKOLAS</v>
+        <v>Maro</v>
       </c>
       <c r="E22" s="1" t="str">
-        <v>DELILAH</v>
+        <v>HELLSTORM</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2148,55 +2148,55 @@
         <v>21</v>
       </c>
       <c r="H22" s="1">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I22" s="1">
+        <v>11</v>
+      </c>
+      <c r="J22" s="1">
+        <v>50</v>
+      </c>
+      <c r="K22" s="1">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1">
+        <v>29</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <v>Buraga Alexandru</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <v>Buraga Alexandru</v>
+      </c>
+      <c r="O22" s="1">
+        <v>49</v>
+      </c>
+      <c r="P22" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>41</v>
+      </c>
+      <c r="R22" s="1">
+        <v>15</v>
+      </c>
+      <c r="S22" s="1">
+        <v>8</v>
+      </c>
+      <c r="T22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>13</v>
+      </c>
+      <c r="V22" s="1">
+        <v>11</v>
+      </c>
+      <c r="W22" s="1">
         <v>7</v>
       </c>
-      <c r="J22" s="1">
-        <v>64</v>
-      </c>
-      <c r="K22" s="1">
-        <v>18</v>
-      </c>
-      <c r="L22" s="1">
-        <v>44</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <v>Tomislav Roso</v>
-      </c>
-      <c r="N22" s="1" t="str">
-        <v>Tom</v>
-      </c>
-      <c r="O22" s="1">
-        <v>35</v>
-      </c>
-      <c r="P22" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>30</v>
-      </c>
-      <c r="R22" s="1">
-        <v>1</v>
-      </c>
-      <c r="S22" s="1">
-        <v>21</v>
-      </c>
-      <c r="T22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" s="1">
-        <v>9</v>
-      </c>
-      <c r="V22" s="1">
-        <v>12</v>
-      </c>
-      <c r="W22" s="1">
-        <v>-24</v>
-      </c>
       <c r="X22" s="1">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="Y22" s="1" t="b">
         <v>0</v>
@@ -2213,70 +2213,70 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C23" s="1" t="str">
-        <v>Germany</v>
+        <v>Austria</v>
       </c>
       <c r="D23" s="1" t="str">
-        <v>Gregor Hägele</v>
+        <v>Melissa Naschenweng</v>
       </c>
       <c r="E23" s="1" t="str">
-        <v>1 Jahr</v>
+        <v>Legenden</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>22</v>
       </c>
       <c r="H23" s="1">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I23" s="1">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1">
+        <v>42</v>
+      </c>
+      <c r="K23" s="1">
+        <v>26</v>
+      </c>
+      <c r="L23" s="1">
+        <v>39</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <v>Paul Didden</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <v>Paul Didden</v>
+      </c>
+      <c r="O23" s="1">
+        <v>27</v>
+      </c>
+      <c r="P23" s="1">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>14</v>
+      </c>
+      <c r="S23" s="1">
+        <v>7</v>
+      </c>
+      <c r="T23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
         <v>9</v>
       </c>
-      <c r="J23" s="1">
-        <v>60</v>
-      </c>
-      <c r="K23" s="1">
-        <v>34</v>
-      </c>
-      <c r="L23" s="1">
-        <v>40</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <v>Stefano Di Betta</v>
-      </c>
-      <c r="N23" s="1" t="str">
-        <v>Stefan</v>
-      </c>
-      <c r="O23" s="1">
-        <v>23</v>
-      </c>
-      <c r="P23" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>9</v>
-      </c>
-      <c r="R23" s="1">
-        <v>2</v>
-      </c>
-      <c r="S23" s="1">
-        <v>24</v>
-      </c>
-      <c r="T23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1">
-        <v>11</v>
-      </c>
       <c r="V23" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="W23" s="1">
-        <v>-23</v>
+        <v>13</v>
       </c>
       <c r="X23" s="1">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="Y23" s="1" t="b">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C24" s="1" t="str">
-        <v>Serbia</v>
+        <v>Luxembourg</v>
       </c>
       <c r="D24" s="1" t="str">
-        <v>Marija Serifovic feat. Matija Cvek</v>
+        <v>Taska Black</v>
       </c>
       <c r="E24" s="1" t="str">
-        <v>POLA SUNCA</v>
+        <v>Comedown</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -2308,55 +2308,55 @@
         <v>23</v>
       </c>
       <c r="H24" s="1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K24" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L24" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M24" s="1" t="str">
-        <v>Mile Gojcevic</v>
+        <v>Valentin Durchev</v>
       </c>
       <c r="N24" s="1" t="str">
-        <v>Mile</v>
+        <v>Valentin Durchev</v>
       </c>
       <c r="O24" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P24" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>23</v>
+      </c>
+      <c r="R24" s="1">
         <v>4</v>
       </c>
-      <c r="Q24" s="1">
-        <v>24</v>
-      </c>
-      <c r="R24" s="1">
-        <v>15</v>
-      </c>
       <c r="S24" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U24" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V24" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W24" s="1">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="X24" s="1">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="Y24" s="1" t="b">
         <v>0</v>
@@ -2373,13 +2373,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C25" s="1" t="str">
-        <v>Luxembourg</v>
+        <v>Israel</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>Taska Black</v>
+        <v>Narkis</v>
       </c>
       <c r="E25" s="1" t="str">
-        <v>Comedown</v>
+        <v>הכל לטובה</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
@@ -2388,55 +2388,55 @@
         <v>24</v>
       </c>
       <c r="H25" s="1">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I25" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K25" s="1">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="L25" s="1">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="M25" s="1" t="str">
-        <v>Valentin Durchev</v>
+        <v>Argiris Maniotas</v>
       </c>
       <c r="N25" s="1" t="str">
-        <v>Valentin Durchev</v>
+        <v>Argiris</v>
       </c>
       <c r="O25" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P25" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1">
         <v>3</v>
       </c>
-      <c r="Q25" s="1">
-        <v>22</v>
-      </c>
-      <c r="R25" s="1">
-        <v>4</v>
-      </c>
       <c r="S25" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U25" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V25" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W25" s="1">
-        <v>-22</v>
+        <v>-40</v>
       </c>
       <c r="X25" s="1">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="Y25" s="1" t="b">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>EMSC 2403</v>
       </c>
       <c r="C26" s="1" t="str">
-        <v>Israel</v>
+        <v>Serbia</v>
       </c>
       <c r="D26" s="1" t="str">
-        <v>Narkis</v>
+        <v>Marija Serifovic feat. Matija Cvek</v>
       </c>
       <c r="E26" s="1" t="str">
-        <v>הכל לטובה</v>
+        <v>POLA SUNCA</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
@@ -2468,40 +2468,40 @@
         <v>25</v>
       </c>
       <c r="H26" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K26" s="1">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="L26" s="1">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M26" s="1" t="str">
-        <v>Argiris Maniotas</v>
+        <v>Mile Gojcevic</v>
       </c>
       <c r="N26" s="1" t="str">
-        <v>Argiris</v>
+        <v>Mile</v>
       </c>
       <c r="O26" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P26" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="1">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="R26" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S26" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T26" s="1" t="b">
         <v>1</v>
@@ -2513,10 +2513,10 @@
         <v>11</v>
       </c>
       <c r="W26" s="1">
-        <v>-50</v>
+        <v>-14</v>
       </c>
       <c r="X26" s="1">
-        <v>-18</v>
+        <v>-14</v>
       </c>
       <c r="Y26" s="1" t="b">
         <v>0</v>
